--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476598.060668668</v>
+        <v>1494972.750134789</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>86.92043326537296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>109.0522721046906</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>22.21854402607422</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>43.31785343913998</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>284.319280643069</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.539391702096211</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.3912409166441</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>164.1192903852761</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>120.8790212148771</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1611956319094</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.07837430361937</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.51219487907793</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>60.54139430664144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>105.6571329437493</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.02525064967651</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.67818248838738</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>77.23221484080548</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>59.04395605284535</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>122.526418915028</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>49.53862743923889</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.380899675072</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>134.7660731567848</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>95.31089658769019</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>191.3430811518353</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1837.140060718708</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.140060718708</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1837.140060718708</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464726</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464726</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464726</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F4" t="n">
-        <v>97.69838933464726</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>97.69838933464726</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>97.69838933464726</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>97.69838933464726</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887292</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1216.692860839516</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>805.7069560499083</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>387.7431479480952</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>60.548427984098</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>532.9350040648279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2459.129294849817</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2459.129294849817</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272.8312459770186</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="C10" t="n">
-        <v>272.8312459770186</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2582889593694</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2582889593694</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2582889593694</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770186</v>
+        <v>261.1482364572798</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.8312459770186</v>
+        <v>261.1482364572798</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>359.1696912903951</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>359.1696912903951</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5470,16 +5470,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>3443.999848753676</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M18" t="n">
-        <v>3751.319982033638</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.182609697671</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
         <v>4860.854573014292</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.0580565471719</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C19" t="n">
-        <v>638.121873619265</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D19" t="n">
-        <v>488.0052342069292</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>340.0921406245361</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>193.2021931266258</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1488.130227640339</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.210217555892</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>1064.424802345397</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774116</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954965</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954965</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>1197.118517124372</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954965</v>
+        <v>969.128966226355</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954965</v>
+        <v>748.3363870828249</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3796.266898524762</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596855</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596855</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1439.275910908564</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1439.275910908564</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="V25" t="n">
-        <v>4024.256449422779</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="W25" t="n">
-        <v>4024.256449422779</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X25" t="n">
-        <v>3796.266898524762</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y25" t="n">
-        <v>3796.266898524762</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3789.665185838028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705228</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4260.730820705228</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>3971.313650668268</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>3971.313650668268</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>3971.313650668268</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,25 +6464,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6707,25 +6707,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.513998854602</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,7 +6935,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7020,19 +7020,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7129,16 +7129,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916676</v>
+        <v>3907.801489902815</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916676</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>4356.583619944363</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>4356.583619944363</v>
       </c>
       <c r="V40" t="n">
-        <v>3782.260917288848</v>
+        <v>4356.583619944363</v>
       </c>
       <c r="W40" t="n">
-        <v>3492.843747251887</v>
+        <v>4356.583619944363</v>
       </c>
       <c r="X40" t="n">
-        <v>3459.155393916676</v>
+        <v>4128.594069046346</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916676</v>
+        <v>3907.801489902815</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7600,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7731,13 +7731,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211595</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>225.9816040299496</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>39.76391507918198</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.46831781370108</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>99.28616991540542</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>209.2907834957855</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.8768539307579</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>129.6112244088</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>99.37520092829723</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10.6549748661464</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,7 +25129,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>130.398758801347</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.20447990655398</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,16 +25840,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584574</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,19 +26320,19 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
@@ -26344,16 +26344,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26497,13 +26497,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357220.9938446527</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
-        <v>232746.8853698919</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>232746.8853698919</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="E6" t="n">
-        <v>-179250.8555306616</v>
+        <v>-177216.0362926642</v>
       </c>
       <c r="F6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="G6" t="n">
-        <v>345909.1809462344</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="H6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="I6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="J6" t="n">
-        <v>169485.9617536416</v>
+        <v>171520.7809916385</v>
       </c>
       <c r="K6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="L6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="M6" t="n">
-        <v>211108.1657123977</v>
+        <v>213142.9849503943</v>
       </c>
       <c r="N6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="O6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="P6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842314</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>278.3524585056346</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>245.6307695159924</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>123.202503996857</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>1.882105749397013</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>80.95361112793853</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>145.391924542765</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>123.8906333253337</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>88.01835293855186</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>285.9970245268343</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>188.5699050465596</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>122.537098714593</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4534269132603</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37072,7 +37072,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37151,7 +37151,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38099,16 +38099,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1494972.750134789</v>
+        <v>1570502.419799594</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>109.0522721046906</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.21854402607422</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>117.1560086992565</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.539391702096211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>8.126445204597637</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>98.93095327306079</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>164.1192903852761</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>120.8790212148771</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>33.33734849758068</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.1830218330445</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.51219487907793</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.7644211441608035</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>105.6571329437493</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.67818248838738</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>77.23221484080548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>59.04395605284535</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.380899675072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>134.7660731567848</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V37" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.86413021890997</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3712,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>191.3430811518353</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>62.28747238246468</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>20.82402696096902</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>291.042280278609</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1602.48111343776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1602.48111343776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1602.48111343776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1216.692860839516</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>805.7069560499083</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7431479480952</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>60.548427984098</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4577,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.9350040648279</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>532.9350040648279</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4755,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>598.7818092286818</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>598.7818092286818</v>
       </c>
       <c r="V7" t="n">
-        <v>532.9350040648279</v>
+        <v>598.7818092286818</v>
       </c>
       <c r="W7" t="n">
-        <v>532.9350040648279</v>
+        <v>598.7818092286818</v>
       </c>
       <c r="X7" t="n">
-        <v>532.9350040648279</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.9350040648279</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917581</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C8" t="n">
-        <v>594.0068113513464</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D8" t="n">
-        <v>594.0068113513464</v>
+        <v>884.3912285997119</v>
       </c>
       <c r="E8" t="n">
-        <v>594.0068113513464</v>
+        <v>498.6029760014677</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>87.61707121186009</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1998.219284210996</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="C10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="D10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1482364572798</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2582889593694</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2582889593694</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2582889593694</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="X10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.1482364572798</v>
+        <v>216.7193895227713</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5026,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870655</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870655</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,19 +5296,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.9414681711437</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C16" t="n">
-        <v>203.9414681711437</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D16" t="n">
-        <v>203.9414681711437</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E16" t="n">
-        <v>203.9414681711437</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>385.5899330013834</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>882.7763375151577</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C19" t="n">
-        <v>713.8401545872508</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1488.130227640339</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1288.210217555892</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1064.424802345397</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1064.424802345397</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.424802345397</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.424802345397</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.424802345397</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>1064.424802345397</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>378.1030765138945</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L21" t="n">
-        <v>624.8682044203586</v>
+        <v>2801.004654415706</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003201</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>566.6879222525852</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5941,19 +5943,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1197.118517124372</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>969.128966226355</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>748.3363870828249</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.275910908564</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.275910908564</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1150.147272122122</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.147272122122</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>860.7301020851612</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6229,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2471.066311049163</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2881.956579893676</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6682,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4230.423978142506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.865022116275</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>4412.072442972745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.03077229167</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.613602254709</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X37" t="n">
-        <v>966.6240513566914</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.8314722131613</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3907.801489902815</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C40" t="n">
-        <v>3738.865306974908</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D40" t="n">
-        <v>3738.865306974908</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="E40" t="n">
-        <v>3738.865306974908</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4356.583619944363</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4356.583619944363</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>4356.583619944363</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W40" t="n">
-        <v>4356.583619944363</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X40" t="n">
-        <v>4128.594069046346</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y40" t="n">
-        <v>3907.801489902815</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.107328986838</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7840,16 +7842,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978186</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.75693659211595</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024084</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.76391507918198</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.5661327027732</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.28616991540542</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>209.2907834957855</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>138.8768539307579</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>10.6549748661464</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25366,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V37" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>111.5698324276592</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>30.20447990655398</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>86.62635598507146</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7914460572433</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584574</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
@@ -26341,16 +26343,16 @@
         <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852506</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26430,7 +26432,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26442,7 +26444,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26451,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812104</v>
+        <v>-354692.6726812102</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.2065333342</v>
+        <v>235275.2065333343</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333342</v>
+        <v>235275.2065333343</v>
       </c>
       <c r="E6" t="n">
-        <v>-177216.0362926642</v>
+        <v>-177216.0362926647</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842316</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="G6" t="n">
-        <v>347944.0001842316</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="H6" t="n">
-        <v>347944.0001842316</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="I6" t="n">
-        <v>347944.0001842317</v>
+        <v>347944.0001842311</v>
       </c>
       <c r="J6" t="n">
-        <v>171520.7809916385</v>
+        <v>171520.7809916387</v>
       </c>
       <c r="K6" t="n">
         <v>347944.0001842316</v>
       </c>
       <c r="L6" t="n">
+        <v>347944.0001842313</v>
+      </c>
+      <c r="M6" t="n">
+        <v>213142.9849503942</v>
+      </c>
+      <c r="N6" t="n">
         <v>347944.0001842315</v>
       </c>
-      <c r="M6" t="n">
-        <v>213142.9849503943</v>
-      </c>
-      <c r="N6" t="n">
-        <v>347944.0001842316</v>
-      </c>
       <c r="O6" t="n">
-        <v>347944.0001842317</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="P6" t="n">
-        <v>347944.0001842314</v>
+        <v>347944.0001842315</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26758,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26767,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.6307695159924</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>107.4781987052509</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.202503996857</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>101.4286446528383</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>145.391924542765</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>361.6046554738714</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>126.1041521850235</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>88.01835293855186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>285.9970245268343</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>380.4468215232143</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.2509408135247</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.4534269132603</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,13 +35017,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,22 +36202,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>241.8130382709607</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958061</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,7 +38104,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570502.419799594</v>
+        <v>1563485.404907882</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>331.7615209354891</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>241.7627700121621</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.1560086992565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>122.3450725906909</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.126445204597637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>98.93095327306079</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>33.33734849758068</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.0406806111114</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>26.1830218330445</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441608035</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.347695664762908</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002212</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>213.8381682135751</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>104.3001463993609</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>98.76132339851839</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>17.9335970670427</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.86413021890997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>62.28747238246468</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>20.82402696096902</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>542.5216052348597</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>177.5238632251027</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.746763379062</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
         <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.619444146874</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="C8" t="n">
-        <v>1242.656927206462</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="D8" t="n">
-        <v>884.3912285997119</v>
+        <v>1450.540220654586</v>
       </c>
       <c r="E8" t="n">
-        <v>498.6029760014677</v>
+        <v>1064.751968056342</v>
       </c>
       <c r="F8" t="n">
-        <v>87.61707121186009</v>
+        <v>653.7660632667346</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>235.8022551649215</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210996</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.7193895227713</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>216.7193895227713</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>216.7193895227713</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>216.7193895227713</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.7193895227713</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,34 +5026,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,7 +5065,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>441.900558318119</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1393.562587326225</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1193.642577241777</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>969.8571620312833</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>969.8571620312833</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>715.1726738253965</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2471.066311049163</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2881.956579893676</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,19 +6639,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502827</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4512536188989</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4512536188989</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>709.4512536188989</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188989</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188989</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>709.4512536188989</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4512536188989</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>720.4504516500522</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>492.4609007520348</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978186</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024084</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165207</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>145.5661327027732</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338207</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.68483012301593</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>5.664206004431875</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>119.8233299535764</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>141.3262313106235</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>149.3132240315851</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>111.5698324276592</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>86.62635598507146</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>127.7914460572433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.589258457</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218261</v>
@@ -26429,34 +26429,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812102</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.2065333343</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
         <v>235275.2065333343</v>
       </c>
       <c r="E6" t="n">
-        <v>-177216.0362926647</v>
+        <v>-178190.6275523865</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="G6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="H6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="I6" t="n">
-        <v>347944.0001842311</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="J6" t="n">
-        <v>171520.7809916387</v>
+        <v>170546.1897319168</v>
       </c>
       <c r="K6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245095</v>
       </c>
       <c r="L6" t="n">
-        <v>347944.0001842313</v>
+        <v>346969.4089245095</v>
       </c>
       <c r="M6" t="n">
-        <v>213142.9849503942</v>
+        <v>212168.3936906729</v>
       </c>
       <c r="N6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.40892451</v>
       </c>
       <c r="O6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="P6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.4089245099</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.02264908530589</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>107.4781987052509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>116.1240855196265</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.4286446528383</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>291.4390974301041</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>361.6046554738714</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>126.1041521850235</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>380.4468215232143</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>143.8820921532457</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>120.2509408135247</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056072</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958061</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188187</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,13 +38107,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
